--- a/data/Disections and Mouse matings_7.30.19.xlsx
+++ b/data/Disections and Mouse matings_7.30.19.xlsx
@@ -43,6 +43,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>age?
 	-April Peterson</t>
@@ -56,6 +57,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>age?
 	-April Peterson</t>
@@ -69,6 +71,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>age?
 	-April Peterson</t>
@@ -82,6 +85,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>age?
 	-April Peterson</t>
@@ -95,6 +99,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>age?
 	-April Peterson</t>
@@ -118,6 +123,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>very low cell density
 	-April Peterson</t>
@@ -131,6 +137,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>many of the cells were in L or Z
 try collecting from 48hr mice
@@ -145,6 +152,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>couldn't find any cells
 	-April Peterson</t>
@@ -158,6 +166,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>15 cells imaged
 	-April Peterson</t>
@@ -171,6 +180,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>seems like a good slide
 	-April Peterson</t>
@@ -184,6 +194,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not very good
 	-April Peterson</t>
@@ -197,6 +208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>pretty good
 	-April Peterson</t>
@@ -210,6 +222,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>maybe good
 	-April Peterson</t>
@@ -223,6 +236,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not that good
 	-April Peterson</t>
@@ -236,6 +250,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good
 	-April Peterson</t>
@@ -249,6 +264,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good
 	-April Peterson</t>
@@ -262,6 +278,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>bad
 	-April Peterson</t>
@@ -275,6 +292,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good
 	-April Peterson</t>
@@ -288,6 +306,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good
 	-April Peterson</t>
@@ -301,6 +320,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good
 	-April Peterson</t>
@@ -314,6 +334,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not a very good slide
 	-April Peterson</t>
@@ -327,6 +348,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>bad slide
 	-April Peterson</t>
@@ -340,6 +362,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>maybe a better/good slide
 	-April Peterson</t>
@@ -353,6 +376,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not very good
 	-April Peterson</t>
@@ -366,6 +390,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>lose chromosomes everywhere. kinda hard to find individual isolated cells.
 	-April Peterson</t>
@@ -379,6 +404,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some decent stained cells, lots of chromosome debris
 	-April Peterson</t>
@@ -392,6 +418,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some decent stained cells, lots of chromosome debris
 	-April Peterson</t>
@@ -405,6 +432,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>hard to find isolated cell. lots of debris.
 	-April Peterson</t>
@@ -418,6 +446,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some decent stained cells, lots of chromosome debris
 	-April Peterson</t>
@@ -431,6 +460,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good signal for P cells.
 	-April Peterson</t>
@@ -444,6 +474,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good cell integrity, DMC1 signal not very good
 	-April Peterson</t>
@@ -457,6 +488,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -470,6 +502,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>great cell integrity, poor DMC1 signal
 	-April Peterson</t>
@@ -483,6 +516,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good image more?
 	-April Peterson</t>
@@ -496,6 +530,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -509,6 +544,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>signal not that good.
 	-April Peterson</t>
@@ -522,6 +558,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>data collection finished
 	-April Peterson</t>
@@ -535,6 +572,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good slide with good signal and cell integrity.
 	-April Peterson</t>
@@ -548,6 +586,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>on sp2 most of the slide is filled with debris. found clean and isolated cells near the top left edge.
 	-April Peterson
@@ -563,6 +602,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good signal on a number of cells which are outside the debris zone.
 	-April Peterson</t>
@@ -576,6 +616,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>can't find slide
 	-April Peterson</t>
@@ -589,6 +630,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good DMC1 signal, but cell quality not that good.
 	-April Peterson</t>
@@ -602,6 +644,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -615,6 +658,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>very poor cell qunaity, chromosomes everywhere. put away.
 	-April Peterson</t>
@@ -628,6 +672,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -641,6 +686,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -654,6 +700,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>awful DMC1 signal. put away.
 	-April Peterson</t>
@@ -667,6 +714,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good DMC1 signal
 	-April Peterson</t>
@@ -680,6 +728,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>better cell integrity
 	-April Peterson</t>
@@ -693,6 +742,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>cell membrane not broken, no antibody can reach nucleus.
 	-April Peterson</t>
@@ -706,6 +756,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good cell integrity, but antibody signal has not entered cells.
 	-April Peterson</t>
@@ -719,6 +770,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>cell membrane not broken, no antibody can reach nucleus.
 	-April Peterson</t>
@@ -732,6 +784,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good cell integrity and SC staining. Membrane may have not been permeated.
 	-April Peterson</t>
@@ -745,6 +798,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>cell membrane not broken, no antibody can reach nucleus.
 	-April Peterson</t>
@@ -758,6 +812,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>poor DMC1 signal
 	-April Peterson</t>
@@ -771,6 +826,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some decent DMC1 signal, 10 cells imaged
 	-April Peterson</t>
@@ -784,6 +840,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -797,6 +854,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some good DMC1 signal, 10 cells imaged (non-P)
 	-April Peterson
@@ -812,6 +870,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>poor DMC1 signal
 	-April Peterson</t>
@@ -825,6 +884,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>poor DMC1 signal. but didn't look at whole slide.
 	-April Peterson</t>
@@ -838,6 +898,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>low cell density and poor signal
 	-April Peterson</t>
@@ -851,6 +912,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>low cell integrity and low signal
 	-April Peterson</t>
@@ -864,6 +926,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>pretty good signal and cell integrity
 	-April Peterson</t>
@@ -877,6 +940,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good cells. but 11/35
 	-April Peterson</t>
@@ -890,6 +954,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>great signal, bad cell spreading.
 	-April Peterson</t>
@@ -903,6 +968,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>very bad cell integrity.
 	-April Peterson</t>
@@ -916,6 +982,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>add more
 	-April Peterson</t>
@@ -929,6 +996,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>very good staining.
 	-April Peterson</t>
@@ -942,6 +1010,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -955,6 +1024,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>good staing and DMC1 data
 	-April Peterson</t>
@@ -968,6 +1038,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>very good DMC1 staining. most cells are P and not L or Z
 	-April Peterson</t>
@@ -981,6 +1052,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some good foci signal but in cells with poor cell integrity
 	-April Peterson</t>
@@ -994,6 +1066,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -1007,6 +1080,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some good DMC1 signal, but cell integrity isn't that good.
 	-April Peterson</t>
@@ -1020,6 +1094,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>10 DMC1 cells. good signal
 	-April Peterson</t>
@@ -1033,6 +1108,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>decent cell density poor signal
 	-April Peterson</t>
@@ -1046,6 +1122,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not very good DMC1 signal
 	-April Peterson
@@ -1061,6 +1138,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>random chromomes everywhere and many cells broken up
 	-April Peterson</t>
@@ -1074,6 +1152,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>recount these good images
 	-April Peterson</t>
@@ -1087,6 +1166,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>recount good images
 	-April Peterson</t>
@@ -1100,6 +1180,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>finished MLH1 data collection
 	-April Peterson</t>
@@ -1113,6 +1194,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>awful dmc1 signal
 	-April Peterson</t>
@@ -1126,6 +1208,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>cell integrity not very good.
 	-April Peterson</t>
@@ -1139,6 +1222,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some bright foci, but the cell integrity isn't the best.</t>
         </r>
@@ -1151,6 +1235,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>decent DMC1 signal
 	-April Peterson</t>
@@ -1164,6 +1249,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>not very good signal, retry microscoping.
 	-April Peterson</t>
@@ -1177,6 +1263,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>pretty good cell density, poor MLH1 staining
 	-April Peterson</t>
@@ -1190,6 +1277,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>signal not that good</t>
         </r>
@@ -1212,6 +1300,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>some bright foci, but the cell integrity isn't the best.</t>
         </r>
@@ -1224,6 +1313,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>signal not that good</t>
         </r>
@@ -1234,7 +1324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4855" uniqueCount="1421">
   <si>
     <t>mouse</t>
   </si>
@@ -3592,9 +3682,6 @@
     <t>mat DOB 10-16-14</t>
   </si>
   <si>
-    <t>1april15_PWD_f1</t>
-  </si>
-  <si>
     <t>PWD (2 females)  16-17embryonic days</t>
   </si>
   <si>
@@ -3606,9 +3693,6 @@
   <si>
     <t xml:space="preserve">2 pairs of ovaries
 </t>
-  </si>
-  <si>
-    <t>1april15_PWD_f2</t>
   </si>
   <si>
     <t>31mar15_WSB_m1</t>
@@ -5528,30 +5612,36 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <strike/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5568,47 +5658,56 @@
       <strike/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <strike/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF191919"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="24">
@@ -6243,8 +6342,8 @@
   <dimension ref="A1:AI1493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F441" sqref="F441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -15081,31 +15180,31 @@
     </row>
     <row r="439" spans="1:11" ht="12.75">
       <c r="A439" s="1" t="s">
-        <v>785</v>
+        <v>837</v>
       </c>
       <c r="B439" s="1"/>
       <c r="C439" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E439" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="E439" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="F439" s="46"/>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="440" spans="1:11" ht="12.75">
       <c r="A440" s="1" t="s">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
       <c r="E440" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F440" s="46"/>
       <c r="G440" s="1"/>
@@ -15115,11 +15214,11 @@
     </row>
     <row r="441" spans="1:11" ht="29.25" customHeight="1">
       <c r="A441" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B441" s="1"/>
       <c r="C441" s="1" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D441" s="3">
         <v>41970</v>
@@ -15129,12 +15228,12 @@
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="442" spans="1:11" ht="24.75" customHeight="1">
       <c r="A442" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -15149,7 +15248,7 @@
     </row>
     <row r="443" spans="1:11" ht="12.75">
       <c r="A443" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="D443" s="5">
         <v>41928</v>
@@ -15157,26 +15256,26 @@
     </row>
     <row r="444" spans="1:11" ht="12.75">
       <c r="A444" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B444" s="2">
         <v>4105</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D444" s="3">
         <v>41887</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F444" s="46"/>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="K444" s="1" t="s">
         <v>757</v>
@@ -15184,19 +15283,19 @@
     </row>
     <row r="445" spans="1:11" ht="12.75">
       <c r="A445" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B445" s="1">
         <v>2939</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D445" s="3">
         <v>41741</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F445" s="46"/>
       <c r="G445" s="1"/>
@@ -15206,7 +15305,7 @@
     </row>
     <row r="446" spans="1:11" ht="12.75">
       <c r="A446" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B446" s="1">
         <v>2933</v>
@@ -15223,11 +15322,11 @@
     </row>
     <row r="447" spans="1:11" ht="12.75">
       <c r="A447" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D447" s="3">
         <v>41983</v>
@@ -15237,12 +15336,12 @@
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="12.75">
       <c r="A448" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -15257,11 +15356,11 @@
     </row>
     <row r="449" spans="1:13" ht="12.75">
       <c r="A449" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D449" s="3">
         <v>41953</v>
@@ -15271,12 +15370,12 @@
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="450" spans="1:13" ht="12.75">
       <c r="A450" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -15289,7 +15388,7 @@
     </row>
     <row r="451" spans="1:13" ht="12.75">
       <c r="A451" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1" t="s">
@@ -15303,12 +15402,12 @@
         <v>729</v>
       </c>
       <c r="M451" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="452" spans="1:13" ht="12.75">
       <c r="A452" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1" t="s">
@@ -15322,31 +15421,31 @@
         <v>729</v>
       </c>
       <c r="M452" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="453" spans="1:13" ht="12.75">
       <c r="A453" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F453" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="F453" s="3" t="s">
-        <v>826</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="K453" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="L453" s="1" t="s">
         <v>729</v>
@@ -15354,12 +15453,12 @@
     </row>
     <row r="454" spans="1:13" ht="12.75">
       <c r="A454" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
       <c r="E454" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F454" s="46"/>
       <c r="G454" s="1"/>
@@ -15372,12 +15471,12 @@
     </row>
     <row r="455" spans="1:13" ht="12.75">
       <c r="A455" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
       <c r="E455" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F455" s="46"/>
       <c r="G455" s="1"/>
@@ -15390,12 +15489,12 @@
     </row>
     <row r="456" spans="1:13" ht="12.75">
       <c r="A456" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="E456" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F456" s="46"/>
       <c r="G456" s="1"/>
@@ -15408,12 +15507,12 @@
     </row>
     <row r="457" spans="1:13" ht="12.75">
       <c r="A457" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
       <c r="E457" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F457" s="46"/>
       <c r="G457" s="1"/>
@@ -15426,12 +15525,12 @@
     </row>
     <row r="458" spans="1:13" ht="12.75">
       <c r="A458" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="E458" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F458" s="46"/>
       <c r="G458" s="1"/>
@@ -15444,18 +15543,18 @@
     </row>
     <row r="459" spans="1:13" ht="12.75">
       <c r="A459" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B459" s="1"/>
       <c r="D459" s="46"/>
       <c r="E459" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F459" s="46"/>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
@@ -15464,12 +15563,12 @@
     </row>
     <row r="460" spans="1:13" ht="12.75">
       <c r="A460" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B460" s="1"/>
       <c r="D460" s="46"/>
       <c r="E460" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F460" s="46"/>
       <c r="G460" s="1"/>
@@ -15496,7 +15595,7 @@
     </row>
     <row r="462" spans="1:13" ht="12.75">
       <c r="A462" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1" t="s">
@@ -15510,21 +15609,21 @@
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="L462" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="K462" s="1" t="s">
+      <c r="M462" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="L462" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="M462" s="1" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="463" spans="1:13" ht="12.75">
       <c r="A463" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -15542,7 +15641,7 @@
     </row>
     <row r="464" spans="1:13" ht="12.75">
       <c r="A464" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -15560,7 +15659,7 @@
     </row>
     <row r="465" spans="1:13" ht="12.75">
       <c r="A465" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -15578,7 +15677,7 @@
     </row>
     <row r="466" spans="1:13" ht="12.75">
       <c r="A466" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -15596,7 +15695,7 @@
     </row>
     <row r="468" spans="1:13" ht="12.75">
       <c r="A468" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1" t="s">
@@ -15610,18 +15709,18 @@
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="L468" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="K468" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="L468" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="469" spans="1:13" ht="12.75">
       <c r="A469" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -15638,7 +15737,7 @@
     </row>
     <row r="470" spans="1:13" ht="12.75">
       <c r="A470" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -15655,88 +15754,88 @@
     </row>
     <row r="471" spans="1:13" ht="12.75">
       <c r="A471" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B471" s="1"/>
       <c r="C471" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="1"/>
       <c r="F471" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="L471" s="1" t="s">
         <v>868</v>
-      </c>
-      <c r="J471" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="L471" s="1" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="472" spans="1:13" ht="12.75">
       <c r="A472" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B472" s="1"/>
       <c r="C472" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="1"/>
       <c r="F472" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J472" s="1"/>
       <c r="L472" s="1"/>
     </row>
     <row r="473" spans="1:13" ht="12.75">
       <c r="A473" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B473" s="1"/>
       <c r="C473" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="1"/>
       <c r="F473" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J473" s="1"/>
       <c r="L473" s="1"/>
     </row>
     <row r="474" spans="1:13" ht="12.75">
       <c r="A474" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B474" s="1"/>
       <c r="C474" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="1"/>
       <c r="F474" s="3" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J474" s="1"/>
       <c r="L474" s="1"/>
@@ -15760,7 +15859,7 @@
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
@@ -15768,32 +15867,32 @@
     </row>
     <row r="477" spans="1:13" ht="12.75">
       <c r="A477" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B477" s="1"/>
       <c r="C477" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E477" s="1"/>
       <c r="F477" s="27" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G477" s="1"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="L477" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="M477" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="12.75">
       <c r="A478" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B478" s="1"/>
       <c r="C478" s="1" t="s">
@@ -15809,17 +15908,17 @@
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="K478" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="L478" s="1"/>
       <c r="M478" s="1"/>
     </row>
     <row r="479" spans="1:13" ht="12.75">
       <c r="A479" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B479" s="1"/>
       <c r="C479" s="1" t="s">
@@ -15841,7 +15940,7 @@
     </row>
     <row r="480" spans="1:13" ht="12.75">
       <c r="A480" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B480" s="1"/>
       <c r="C480" s="1" t="s">
@@ -15863,7 +15962,7 @@
     </row>
     <row r="481" spans="1:13" ht="12.75">
       <c r="A481" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B481" s="1"/>
       <c r="C481" s="1" t="s">
@@ -15885,7 +15984,7 @@
     </row>
     <row r="482" spans="1:13" ht="12.75">
       <c r="A482" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B482" s="1"/>
       <c r="C482" s="1" t="s">
@@ -15907,7 +16006,7 @@
     </row>
     <row r="483" spans="1:13" ht="12.75">
       <c r="A483" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B483" s="1"/>
       <c r="C483" s="1" t="s">
@@ -15929,7 +16028,7 @@
     </row>
     <row r="484" spans="1:13" ht="12.75">
       <c r="A484" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B484" s="1"/>
       <c r="C484" s="1" t="s">
@@ -15951,7 +16050,7 @@
     </row>
     <row r="485" spans="1:13" ht="12.75">
       <c r="A485" s="1" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B485" s="1"/>
       <c r="C485" s="1" t="s">
@@ -15986,7 +16085,7 @@
     </row>
     <row r="487" spans="1:13" ht="12.75">
       <c r="A487" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B487" s="1"/>
       <c r="C487" s="1" t="s">
@@ -16002,21 +16101,21 @@
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="L487" s="1" t="s">
         <v>899</v>
       </c>
-      <c r="K487" s="1" t="s">
+      <c r="M487" s="1" t="s">
         <v>900</v>
-      </c>
-      <c r="L487" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="M487" s="1" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="12.75">
       <c r="A488" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B488" s="1"/>
       <c r="C488" s="1" t="s">
@@ -16037,7 +16136,7 @@
     </row>
     <row r="489" spans="1:13" ht="12.75">
       <c r="A489" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B489" s="1"/>
       <c r="C489" s="1" t="s">
@@ -16061,19 +16160,19 @@
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="K490" s="1" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="491" spans="1:13" ht="12.75">
       <c r="A491" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B491" s="1"/>
       <c r="C491" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D491" s="3">
         <v>41899</v>
@@ -16082,22 +16181,22 @@
         <v>564</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J491" s="1"/>
     </row>
     <row r="492" spans="1:13" ht="12.75">
       <c r="A492" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B492" s="1"/>
       <c r="C492" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D492" s="3">
         <v>41899</v>
@@ -16106,22 +16205,22 @@
         <v>564</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J492" s="1"/>
     </row>
     <row r="493" spans="1:13" ht="12.75">
       <c r="A493" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B493" s="1"/>
       <c r="C493" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D493" s="3">
         <v>41899</v>
@@ -16130,22 +16229,22 @@
         <v>564</v>
       </c>
       <c r="F493" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J493" s="1"/>
     </row>
     <row r="494" spans="1:13" ht="12.75">
       <c r="A494" s="1" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B494" s="1"/>
       <c r="C494" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D494" s="3">
         <v>41899</v>
@@ -16154,22 +16253,22 @@
         <v>564</v>
       </c>
       <c r="F494" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J494" s="1"/>
     </row>
     <row r="495" spans="1:13" ht="12.75">
       <c r="A495" s="1" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B495" s="1"/>
       <c r="C495" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D495" s="3">
         <v>41899</v>
@@ -16178,12 +16277,12 @@
         <v>564</v>
       </c>
       <c r="F495" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J495" s="1"/>
     </row>
@@ -16199,7 +16298,7 @@
     </row>
     <row r="497" spans="1:13" ht="12.75">
       <c r="A497" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B497" s="1"/>
       <c r="D497" s="46"/>
@@ -16208,12 +16307,12 @@
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="498" spans="1:13" ht="12.75">
       <c r="A498" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -16232,7 +16331,7 @@
     </row>
     <row r="499" spans="1:13" ht="12.75">
       <c r="A499" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B499" s="1"/>
       <c r="C499" s="1" t="s">
@@ -16244,42 +16343,42 @@
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="L499" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="K499" s="1" t="s">
+      <c r="M499" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="L499" s="1" t="s">
-        <v>934</v>
-      </c>
-      <c r="M499" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="500" spans="1:13" ht="12.75">
       <c r="A500" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="1"/>
       <c r="F500" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="L500" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="L500" s="1" t="s">
-        <v>941</v>
-      </c>
       <c r="M500" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="501" spans="1:13" ht="12.75">
@@ -16289,38 +16388,38 @@
     </row>
     <row r="502" spans="1:13" ht="12.75">
       <c r="A502" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
       <c r="D502" s="46"/>
       <c r="F502" s="46"/>
       <c r="I502" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="503" spans="1:13" ht="12.75">
       <c r="A503" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
       <c r="D503" s="46"/>
       <c r="F503" s="46"/>
       <c r="I503" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="504" spans="1:13" ht="12.75">
       <c r="A504" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
       <c r="D504" s="46"/>
       <c r="F504" s="46"/>
       <c r="I504" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="505" spans="1:13" ht="12.75">
@@ -16332,7 +16431,7 @@
     </row>
     <row r="506" spans="1:13" ht="12.75">
       <c r="A506" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B506" s="1"/>
       <c r="C506" s="1" t="s">
@@ -16343,7 +16442,7 @@
     </row>
     <row r="507" spans="1:13" ht="12.75">
       <c r="A507" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B507" s="1"/>
       <c r="C507" s="1" t="s">
@@ -16354,14 +16453,14 @@
     </row>
     <row r="508" spans="1:13" ht="12.75">
       <c r="A508" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D508" s="46"/>
       <c r="F508" s="46"/>
     </row>
     <row r="509" spans="1:13" ht="12.75">
       <c r="A509" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D509" s="46"/>
       <c r="F509" s="46"/>
@@ -16376,47 +16475,47 @@
     </row>
     <row r="511" spans="1:13" ht="12.75">
       <c r="A511" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B511" s="1"/>
       <c r="C511" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D511" s="3"/>
       <c r="E511" s="1"/>
       <c r="F511" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="512" spans="1:13" ht="12.75">
       <c r="A512" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B512" s="1"/>
       <c r="C512" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D512" s="46"/>
       <c r="F512" s="46"/>
     </row>
     <row r="513" spans="1:11" ht="12.75">
       <c r="A513" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B513" s="1"/>
       <c r="C513" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D513" s="46"/>
       <c r="F513" s="46"/>
     </row>
     <row r="514" spans="1:11" ht="12.75">
       <c r="A514" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B514" s="1"/>
       <c r="C514" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D514" s="46"/>
       <c r="F514" s="46"/>
@@ -16430,7 +16529,7 @@
     </row>
     <row r="516" spans="1:11" ht="12.75">
       <c r="A516" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B516" s="1"/>
       <c r="C516" s="1" t="s">
@@ -16441,7 +16540,7 @@
     </row>
     <row r="517" spans="1:11" ht="12.75">
       <c r="A517" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B517" s="1"/>
       <c r="C517" s="1" t="s">
@@ -16452,30 +16551,30 @@
     </row>
     <row r="518" spans="1:11" ht="12.75">
       <c r="A518" s="1" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B518" s="1"/>
       <c r="C518" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D518" s="3"/>
       <c r="E518" s="1"/>
       <c r="F518" s="3" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
       <c r="J518" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="K518" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="K518" s="1" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="519" spans="1:11" ht="12.75">
       <c r="A519" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -16486,36 +16585,36 @@
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="520" spans="1:11" ht="12.75">
       <c r="A520" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B520" s="1"/>
       <c r="D520" s="3"/>
       <c r="E520" s="1"/>
       <c r="F520" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="521" spans="1:11" ht="12.75">
       <c r="A521" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B521" s="2"/>
       <c r="C521" s="1"/>
       <c r="D521" s="3"/>
       <c r="E521" s="1"/>
       <c r="F521" s="3" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="522" spans="1:11" ht="12.75">
@@ -16526,7 +16625,7 @@
     </row>
     <row r="523" spans="1:11" ht="12.75">
       <c r="A523" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B523" s="1"/>
       <c r="D523" s="46"/>
@@ -16534,7 +16633,7 @@
     </row>
     <row r="524" spans="1:11" ht="12.75">
       <c r="A524" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B524" s="1"/>
       <c r="D524" s="46"/>
@@ -16542,7 +16641,7 @@
     </row>
     <row r="525" spans="1:11" ht="12.75">
       <c r="A525" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B525" s="1"/>
       <c r="D525" s="46"/>
@@ -16550,7 +16649,7 @@
     </row>
     <row r="526" spans="1:11" ht="12.75">
       <c r="A526" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B526" s="1"/>
       <c r="D526" s="46"/>
@@ -16558,7 +16657,7 @@
     </row>
     <row r="527" spans="1:11" ht="12.75">
       <c r="A527" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B527" s="1"/>
       <c r="D527" s="46"/>
@@ -20451,15 +20550,15 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
@@ -20483,45 +20582,45 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>1242</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>1243</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1247</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="B5" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1252</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -20529,13 +20628,13 @@
         <v>2871</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="I7" s="81" t="s">
         <v>1253</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>1254</v>
-      </c>
-      <c r="I7" s="81" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -20543,10 +20642,10 @@
         <v>2794</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -20554,24 +20653,24 @@
         <v>2889</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
@@ -20579,31 +20678,31 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -20611,19 +20710,19 @@
         <v>2871</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C16" s="119">
         <v>41734</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -20632,22 +20731,22 @@
         <v>2866</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C17" s="119">
         <v>41734</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
@@ -20655,16 +20754,16 @@
         <v>2872</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C18" s="119">
         <v>41734</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -20672,16 +20771,16 @@
         <v>2929</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C19" s="119">
         <v>41728</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
@@ -20689,16 +20788,16 @@
         <v>2890</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C20" s="119">
         <v>41744</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
@@ -20706,10 +20805,10 @@
         <v>2797</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="12.75">
@@ -20717,7 +20816,7 @@
         <v>2889</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C22" s="119"/>
       <c r="D22" s="1"/>
@@ -20728,7 +20827,7 @@
         <v>2794</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C23" s="119"/>
       <c r="D23" s="1"/>
@@ -20736,16 +20835,16 @@
     </row>
     <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C24" s="119">
         <v>41710</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>291</v>
@@ -20753,16 +20852,16 @@
     </row>
     <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C25" s="119">
         <v>41710</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>291</v>
@@ -20878,15 +20977,15 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -20896,80 +20995,80 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>1275</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="B5" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>1284</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>1285</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1287</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C6" s="81" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
@@ -20977,10 +21076,10 @@
         <v>2889</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -20988,13 +21087,13 @@
         <v>2886</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -21008,7 +21107,7 @@
         <v>19.5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
@@ -21016,10 +21115,10 @@
         <v>2887</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" customHeight="1">
@@ -21027,10 +21126,10 @@
         <v>2884</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
@@ -21038,10 +21137,10 @@
         <v>2866</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" customHeight="1">
@@ -21049,39 +21148,39 @@
         <v>2872</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="K15" s="81" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -21089,14 +21188,14 @@
         <v>2929</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C18" s="119">
         <v>41728</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -21104,14 +21203,14 @@
         <v>2890</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C19" s="119">
         <v>41744</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -21119,10 +21218,10 @@
         <v>2797</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -21130,14 +21229,14 @@
         <v>2889</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C21" s="119">
         <v>41734</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75">
@@ -21145,22 +21244,22 @@
         <v>2794</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C22" s="119">
         <v>41712</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C23" s="119">
         <v>41710</v>
@@ -21172,10 +21271,10 @@
     </row>
     <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C24" s="119"/>
       <c r="D24" s="1"/>
@@ -21183,15 +21282,15 @@
         <v>291</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75">
       <c r="A25" s="81" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C25" s="119">
         <v>41710</v>
@@ -21201,13 +21300,13 @@
         <v>291</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75">
@@ -21215,13 +21314,13 @@
         <v>2884</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C26" s="119">
         <v>41734</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.75">
@@ -21229,19 +21328,19 @@
         <v>2886</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C27" s="119">
         <v>41734</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75">
@@ -21249,13 +21348,13 @@
         <v>2887</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C28" s="119">
         <v>41734</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75">
@@ -21263,13 +21362,13 @@
         <v>2792</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C29" s="119">
         <v>41712</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75">
@@ -21277,12 +21376,12 @@
         <v>2872</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C30" s="119"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75">
@@ -21290,13 +21389,13 @@
         <v>2793</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C31" s="119">
         <v>41712</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75">
@@ -21304,13 +21403,13 @@
         <v>2866</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>1331</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12.75">
@@ -21318,15 +21417,15 @@
         <v>2791</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12.75">
       <c r="A34" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12.75">
@@ -21334,16 +21433,16 @@
         <v>2715</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C35" s="119">
         <v>41612</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12.75">
@@ -21351,13 +21450,13 @@
         <v>2761</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C36" s="119">
         <v>41626</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12.75">
@@ -21396,45 +21495,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>1268</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>1381</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>1270</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>16</v>
@@ -21445,7 +21544,7 @@
         <v>2845</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C17" s="119">
         <v>41728</v>
@@ -21454,16 +21553,16 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="G17" s="1">
         <v>7</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
@@ -21471,7 +21570,7 @@
         <v>2846</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C18" s="119">
         <v>41728</v>
@@ -21480,10 +21579,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G18" s="1">
         <v>9</v>
@@ -21492,7 +21591,7 @@
         <v>18.5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
@@ -21500,7 +21599,7 @@
         <v>2847</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C19" s="119">
         <v>41728</v>
@@ -21509,10 +21608,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -21520,7 +21619,7 @@
         <v>2848</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C20" s="119">
         <v>41728</v>
@@ -21529,16 +21628,16 @@
         <v>2</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G20" s="1">
         <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
@@ -21546,7 +21645,7 @@
         <v>2851</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C21" s="119">
         <v>41728</v>
@@ -21555,7 +21654,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75">
@@ -21563,25 +21662,25 @@
         <v>2795</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C22" s="119">
         <v>41714</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1394</v>
       </c>
       <c r="G22" s="1">
         <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75">
@@ -21589,16 +21688,16 @@
         <v>2797</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C23" s="119">
         <v>41714</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -21607,19 +21706,19 @@
         <v>291</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="G24" s="1">
         <v>15</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12.75">
@@ -21630,13 +21729,13 @@
     </row>
     <row r="27" spans="1:9" ht="12.75">
       <c r="B27" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>1406</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1407</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75">
@@ -21689,16 +21788,16 @@
   <sheetData>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1374</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1376</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -21706,22 +21805,22 @@
         <v>533</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D4">
         <f>22/26</f>
         <v>0.84615384615384615</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
@@ -21731,15 +21830,15 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -21749,26 +21848,26 @@
         <v>0.98148148148148151</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
@@ -21781,41 +21880,41 @@
         <v>533</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C17" s="1">
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
@@ -21823,44 +21922,44 @@
         <v>291</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="1" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="1" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="1" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="1" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -32795,7 +32894,7 @@
         <v>690</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D383" s="56" t="s">
         <v>781</v>
@@ -32804,7 +32903,7 @@
         <v>782</v>
       </c>
       <c r="F383" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G383" s="54"/>
       <c r="H383" s="8"/>
@@ -32838,10 +32937,10 @@
         <v>300</v>
       </c>
       <c r="D384" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F384" s="8"/>
       <c r="G384" s="54"/>
@@ -32876,10 +32975,10 @@
         <v>300</v>
       </c>
       <c r="D385" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E385" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F385" s="8"/>
       <c r="G385" s="54"/>
@@ -32914,13 +33013,13 @@
         <v>300</v>
       </c>
       <c r="D386" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E386" s="66" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F386" s="58" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G386" s="54"/>
       <c r="H386" s="8"/>
@@ -32950,17 +33049,17 @@
     </row>
     <row r="387" spans="1:31" ht="12.75">
       <c r="A387" s="49" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B387" s="7"/>
       <c r="C387" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D387" s="67" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E387" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F387" s="8"/>
       <c r="G387" s="54"/>
@@ -32992,10 +33091,10 @@
       </c>
       <c r="B388" s="7"/>
       <c r="C388" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D388" s="56" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F388" s="8"/>
       <c r="G388" s="54"/>
@@ -33029,13 +33128,13 @@
         <v>712</v>
       </c>
       <c r="C389" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D389" s="56" t="s">
+        <v>829</v>
+      </c>
+      <c r="E389" s="7" t="s">
         <v>830</v>
-      </c>
-      <c r="D389" s="56" t="s">
-        <v>831</v>
-      </c>
-      <c r="E389" s="7" t="s">
-        <v>832</v>
       </c>
       <c r="F389" s="8"/>
       <c r="G389" s="54"/>
@@ -33067,10 +33166,10 @@
       </c>
       <c r="B390" s="7"/>
       <c r="C390" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
@@ -33108,7 +33207,7 @@
         <v>448</v>
       </c>
       <c r="D391" s="68" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E391" s="43" t="s">
         <v>782</v>
@@ -33178,13 +33277,13 @@
         <v>670</v>
       </c>
       <c r="D393" s="70" t="s">
+        <v>847</v>
+      </c>
+      <c r="E393" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="E393" s="60" t="s">
-        <v>851</v>
-      </c>
       <c r="F393" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G393" s="54"/>
       <c r="H393" s="8"/>
@@ -33220,10 +33319,10 @@
         <v>670</v>
       </c>
       <c r="D394" s="68" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E394" s="59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F394" s="49" t="s">
         <v>730</v>
@@ -33287,13 +33386,13 @@
       </c>
       <c r="B396" s="7"/>
       <c r="C396" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D396" s="71" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E396" s="72" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F396" s="8"/>
       <c r="G396" s="54"/>
@@ -33328,10 +33427,10 @@
         <v>733</v>
       </c>
       <c r="D397" s="71" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E397" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F397" s="8"/>
       <c r="G397" s="54"/>
@@ -33363,13 +33462,13 @@
       </c>
       <c r="B398" s="7"/>
       <c r="C398" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D398" s="73" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E398" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F398" s="8"/>
       <c r="G398" s="54"/>
@@ -33406,13 +33505,13 @@
         <v>726</v>
       </c>
       <c r="D399" s="74" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E399" s="69" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F399" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G399" s="54"/>
       <c r="H399" s="8"/>
@@ -33475,10 +33574,10 @@
         <v>738</v>
       </c>
       <c r="C401" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D401" s="56" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E401" s="49" t="s">
         <v>150</v>
@@ -33515,13 +33614,13 @@
         <v>740</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D402" s="60" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E402" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F402" s="8"/>
       <c r="G402" s="54"/>
@@ -33555,10 +33654,10 @@
         <v>741</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D403" s="75" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E403" s="49" t="s">
         <v>171</v>
@@ -33597,22 +33696,22 @@
         <v>743</v>
       </c>
       <c r="B404" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="C404" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="C404" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="D404" s="76" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E404" s="77" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F404" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G404" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H404" s="8"/>
       <c r="I404" s="8"/>
@@ -33674,13 +33773,13 @@
         <v>745</v>
       </c>
       <c r="C406" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E406" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F406" s="8"/>
       <c r="G406" s="54"/>
@@ -33712,16 +33811,16 @@
       </c>
       <c r="B407" s="7"/>
       <c r="C407" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D407" s="78" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E407" s="72" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F407" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G407" s="54"/>
       <c r="H407" s="8"/>
@@ -33754,13 +33853,13 @@
         <v>752</v>
       </c>
       <c r="C408" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D408" s="79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E408" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F408" s="8"/>
       <c r="G408" s="54"/>
@@ -33794,13 +33893,13 @@
         <v>753</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D409" s="79" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E409" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F409" s="8"/>
       <c r="G409" s="54"/>
@@ -33834,7 +33933,7 @@
         <v>758</v>
       </c>
       <c r="C410" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D410" s="80" t="s">
         <v>171</v>
@@ -33852,13 +33951,13 @@
         <v>760</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D411" s="68" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E411" s="59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>150</v>
@@ -33873,44 +33972,44 @@
         <v>754</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D412" s="81" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G412" s="1"/>
     </row>
     <row r="413" spans="1:31" ht="12.75">
       <c r="A413" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D413" s="81" t="s">
         <v>965</v>
       </c>
-      <c r="C413" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D413" s="81" t="s">
+      <c r="E413" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F413" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="E413" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="F413" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="G413" s="1"/>
     </row>
     <row r="414" spans="1:31" ht="12.75">
       <c r="B414" s="1"/>
       <c r="C414" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G414" s="1"/>
       <c r="J414" s="1">
@@ -33976,26 +34075,26 @@
         <v>772</v>
       </c>
       <c r="D419" s="82" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F419" s="71" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:12" ht="12.75">
       <c r="A420" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1" t="s">
         <v>772</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E420" s="49" t="s">
         <v>171</v>
@@ -34013,10 +34112,10 @@
         <v>300</v>
       </c>
       <c r="D421" s="81" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E421" s="63" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G421" s="1"/>
       <c r="J421" s="1">
@@ -34034,10 +34133,10 @@
         <v>300</v>
       </c>
       <c r="D422" s="81" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G422" s="1"/>
     </row>
@@ -34059,13 +34158,13 @@
         <v>300</v>
       </c>
       <c r="D424" s="81" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E424" s="82" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="425" spans="1:12" ht="12.75">
@@ -34077,10 +34176,10 @@
         <v>300</v>
       </c>
       <c r="D425" s="83" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E425" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>150</v>
@@ -34096,7 +34195,7 @@
         <v>300</v>
       </c>
       <c r="D426" s="81" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>171</v>
@@ -34105,10 +34204,10 @@
         <v>150</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="427" spans="1:12" ht="12.75">
@@ -34122,13 +34221,13 @@
         <v>300</v>
       </c>
       <c r="D427" s="81" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E427" s="82" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="428" spans="1:12" ht="12.75">
@@ -34149,13 +34248,13 @@
         <v>300</v>
       </c>
       <c r="D429" s="81" t="s">
+        <v>999</v>
+      </c>
+      <c r="E429" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G429" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="E429" s="59" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="430" spans="1:12" ht="12.75">
@@ -34169,46 +34268,46 @@
         <v>300</v>
       </c>
       <c r="D430" s="81" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E430" s="73" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="431" spans="1:12" ht="12.75">
       <c r="A431" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D431" s="81" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E431" s="63" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:12" ht="12.75">
       <c r="A432" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D432" s="84" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E432" s="85" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G432" s="1"/>
       <c r="J432" s="1">
@@ -34224,16 +34323,16 @@
     </row>
     <row r="434" spans="1:11" ht="12.75">
       <c r="A434" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D434" s="59" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F434" s="2" t="s">
         <v>150</v>
@@ -34242,39 +34341,39 @@
     </row>
     <row r="435" spans="1:11" ht="12.75">
       <c r="A435" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D435" s="81" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E435" s="59" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G435" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E435" s="59" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G435" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="436" spans="1:11" ht="12.75">
       <c r="A436" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C436" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D436" s="81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E436" s="86" t="s">
         <v>1013</v>
-      </c>
-      <c r="D436" s="81" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E436" s="86" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="437" spans="1:11" ht="12.75">
@@ -34286,49 +34385,49 @@
     </row>
     <row r="438" spans="1:11" ht="12.75">
       <c r="A438" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D438" s="85" t="s">
         <v>171</v>
       </c>
       <c r="E438" s="87" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:11" ht="12.75">
       <c r="A439" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D439" s="81" t="s">
         <v>1018</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C439" s="1" t="s">
+      <c r="E439" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D439" s="81" t="s">
+      <c r="F439" s="63" t="s">
         <v>1020</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="G439" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="F439" s="63" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G439" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="J439" s="1">
         <v>26</v>
       </c>
       <c r="K439" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="440" spans="1:11" ht="12.75">
@@ -34341,49 +34440,49 @@
         <v>23.17</v>
       </c>
       <c r="K440" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="441" spans="1:11" ht="12.75">
       <c r="A441" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B441" s="1"/>
       <c r="C441" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D441" s="81" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H441" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="442" spans="1:11" ht="12.75">
       <c r="A442" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D442" s="81" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="443" spans="1:11" ht="12.75">
@@ -34393,53 +34492,53 @@
     </row>
     <row r="444" spans="1:11" ht="12.75">
       <c r="A444" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D444" s="81" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="445" spans="1:11" ht="12.75">
       <c r="A445" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C445" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D445" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D445" s="1" t="s">
-        <v>1032</v>
-      </c>
       <c r="E445" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="446" spans="1:11" ht="12.75">
       <c r="A446" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C446" s="88" t="s">
         <v>448</v>
       </c>
       <c r="D446" s="81" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E446" s="89" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J446" s="1">
         <v>24.1</v>
@@ -34447,53 +34546,53 @@
     </row>
     <row r="447" spans="1:11" ht="12.75">
       <c r="A447" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C447" s="88" t="s">
         <v>448</v>
       </c>
       <c r="D447" s="81" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E447" s="89" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="12.75">
       <c r="A448" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C448" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D448" s="81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E448" s="90" t="s">
         <v>1034</v>
-      </c>
-      <c r="D448" s="81" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E448" s="90" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="449" spans="1:12" ht="12.75">
       <c r="A449" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D449" s="81" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E449" s="86" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="450" spans="1:12" ht="12.75">
@@ -34503,156 +34602,156 @@
     </row>
     <row r="451" spans="1:12" ht="12.75">
       <c r="A451" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D451" s="81" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="452" spans="1:12" ht="12.75">
       <c r="A452" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D452" s="81" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="J452" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="K452" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="453" spans="1:12" ht="12.75">
       <c r="A453" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D453" s="81" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E453" s="82" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G453" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="J453" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="454" spans="1:12" ht="12.75">
       <c r="A454" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D454" s="59" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E454" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>171</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="455" spans="1:12" ht="12.75">
       <c r="A455" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D455" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E455" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E455" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="G455" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="456" spans="1:12" ht="12.75">
       <c r="A456" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D456" s="81" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G456" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="12.75">
       <c r="A457" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D457" s="84" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>171</v>
@@ -34665,96 +34764,96 @@
     </row>
     <row r="459" spans="1:12" ht="12.75">
       <c r="A459" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D459" s="21" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E459" s="91" t="s">
         <v>771</v>
       </c>
       <c r="F459" s="84" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="460" spans="1:12" ht="12.75">
       <c r="A460" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C460" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D460" s="81" t="s">
         <v>1050</v>
       </c>
-      <c r="D460" s="81" t="s">
+      <c r="E460" s="81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G460" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="E460" s="81" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G460" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="461" spans="1:12" ht="12.75">
       <c r="A461" s="92" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B461" s="92"/>
       <c r="C461" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D461" s="59" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E461" s="93" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F461" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="E461" s="93" t="s">
+      <c r="G461" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="F461" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G461" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="462" spans="1:12" ht="12.75">
       <c r="A462" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E462" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F462" s="81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I462" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="F462" s="81" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I462" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="463" spans="1:12" ht="12.75">
       <c r="A463" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D463" s="94" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="464" spans="1:12" ht="12.75">
@@ -34764,49 +34863,49 @@
     </row>
     <row r="465" spans="1:12" ht="12.75">
       <c r="A465" s="92" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B465" s="92"/>
       <c r="C465" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D465" s="59" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E465" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="G465" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="D465" s="59" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E465" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="G465" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="466" spans="1:12" ht="12.75">
       <c r="A466" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C466" s="1">
         <v>34</v>
       </c>
       <c r="D466" s="49"/>
       <c r="E466" s="49" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="467" spans="1:12" ht="12.75">
       <c r="A467" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C467" s="1">
         <v>37</v>
       </c>
       <c r="D467" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>171</v>
@@ -34814,108 +34913,108 @@
     </row>
     <row r="468" spans="1:12" ht="12.75">
       <c r="A468" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C468" s="1"/>
     </row>
     <row r="469" spans="1:12" ht="12.75">
       <c r="A469" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D469" s="95" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E469" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D469" s="95" t="s">
+      <c r="G469" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G469" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="470" spans="1:12" ht="12.75">
       <c r="A470" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D470" s="81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G470" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D470" s="81" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E470" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G470" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="471" spans="1:12" ht="12.75">
       <c r="A471" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D471" s="81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G471" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D471" s="81" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G471" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="472" spans="1:12" ht="12.75">
       <c r="A472" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D472" s="81" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G472" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D472" s="81" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G472" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="473" spans="1:12" ht="12.75">
       <c r="A473" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B473" s="1"/>
       <c r="D473" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:12" ht="12.75">
       <c r="A474" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D474" s="1"/>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:12" ht="12.75">
       <c r="A475" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B475" s="1"/>
       <c r="D475" s="2" t="s">
@@ -34926,12 +35025,12 @@
         <v>26</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="476" spans="1:12" ht="12.75">
       <c r="A476" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B476" s="1"/>
       <c r="D476" s="2" t="s">
@@ -34943,7 +35042,7 @@
       </c>
       <c r="K476" s="1"/>
       <c r="L476" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="477" spans="1:12" ht="12.75">
@@ -34955,48 +35054,48 @@
     </row>
     <row r="478" spans="1:12" ht="12.75">
       <c r="A478" s="92" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B478" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D478" s="59" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E478" s="59" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F478" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="E478" s="59" t="s">
+      <c r="G478" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="F478" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G478" s="2" t="s">
-        <v>1088</v>
-      </c>
       <c r="J478" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="479" spans="1:12" ht="12.75">
       <c r="A479" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D479" s="59" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E479" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="J479" s="1">
         <v>22.68</v>
@@ -35004,36 +35103,36 @@
     </row>
     <row r="480" spans="1:12" ht="12.75">
       <c r="A480" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D480" s="59" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G480" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="E480" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G480" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="481" spans="1:12" ht="12.75">
       <c r="A481" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D481" s="81" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E481" s="2" t="s">
         <v>150</v>
@@ -35041,19 +35140,19 @@
     </row>
     <row r="482" spans="1:12" ht="12.75">
       <c r="A482" s="92" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B482" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D482" s="59" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="J482" s="1">
         <v>15.5</v>
@@ -35061,14 +35160,14 @@
     </row>
     <row r="483" spans="1:12" ht="12.75">
       <c r="A483" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B483" s="1"/>
       <c r="C483" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J483" s="1">
         <v>15.7</v>
@@ -35076,194 +35175,194 @@
     </row>
     <row r="484" spans="1:12" ht="12.75">
       <c r="A484" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B484" s="1"/>
       <c r="C484" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F484" s="1"/>
     </row>
     <row r="485" spans="1:12" ht="12.75">
       <c r="A485" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D485" s="81" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E485" s="97" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>730</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J485" s="2"/>
       <c r="K485" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="487" spans="1:12" ht="12.75">
       <c r="A487" s="92" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B487" s="92"/>
       <c r="C487" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E487" s="59" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F487" s="59"/>
       <c r="G487" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="488" spans="1:12" ht="12.75">
       <c r="A488" s="92" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B488" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C488" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D488" s="59" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E488" s="59" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F488" s="59"/>
       <c r="G488" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="489" spans="1:12" ht="12.75">
       <c r="A489" s="92" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B489" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C489" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D489" s="59" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E489" s="21" t="s">
         <v>1105</v>
-      </c>
-      <c r="E489" s="21" t="s">
-        <v>1107</v>
       </c>
       <c r="F489" s="59"/>
       <c r="G489" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="491" spans="1:12" ht="12.75">
       <c r="A491" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C491" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D491" s="81" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E491" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D491" s="81" t="s">
+      <c r="F491" s="98" t="s">
         <v>1109</v>
       </c>
-      <c r="E491" s="1" t="s">
+      <c r="G491" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="F491" s="98" t="s">
+      <c r="H491" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="G491" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H491" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="492" spans="1:12" ht="12.75">
       <c r="A492" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D492" s="81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E492" s="90" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G492" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="E492" s="90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G492" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="493" spans="1:12" ht="12.75">
       <c r="A493" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B493" s="2"/>
       <c r="C493" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D493" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F493" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="E493" s="1" t="s">
+      <c r="H493" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="F493" s="59" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H493" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="494" spans="1:12" ht="12.75">
       <c r="A494" s="92" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B494" s="92"/>
       <c r="C494" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D494" s="59" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G494" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G494" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="J494" s="1">
         <v>29</v>
@@ -35271,27 +35370,27 @@
     </row>
     <row r="495" spans="1:12" ht="12.75">
       <c r="A495" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D495" s="81" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E495" s="81" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F495" s="59" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="496" spans="1:12" ht="12.75">
       <c r="A496" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -35311,76 +35410,76 @@
     </row>
     <row r="498" spans="1:8" ht="15">
       <c r="A498" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B498" s="2"/>
       <c r="C498" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D498" s="43" t="s">
         <v>782</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F498" s="1"/>
       <c r="G498" s="1"/>
       <c r="H498" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="499" spans="1:8" ht="12.75">
       <c r="D499" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="92" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B500" s="92"/>
       <c r="C500" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D500" s="59" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="92" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B501" s="92"/>
       <c r="C501" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D501" s="59" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="92" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B502" s="92"/>
       <c r="C502" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D502" s="59" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E502" s="1"/>
       <c r="G502" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="12.75">
@@ -35391,31 +35490,31 @@
     </row>
     <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D504" s="81" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F504" s="99" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="505" spans="1:8" ht="15">
       <c r="A505" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B505" s="2"/>
       <c r="C505" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D505" s="85" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E505" s="43" t="s">
         <v>782</v>
@@ -35423,75 +35522,75 @@
     </row>
     <row r="507" spans="1:8" ht="14.25">
       <c r="A507" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B507" s="1"/>
       <c r="C507" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D507" s="100" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E507" s="59" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B508" s="1"/>
       <c r="C508" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D508" s="59" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B509" s="1"/>
       <c r="C509" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="92" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B510" s="92"/>
       <c r="C510" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D510" s="85" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E510" s="101"/>
       <c r="F510" s="59" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B511" s="1"/>
       <c r="C511" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="512" spans="1:8" ht="12.75">
@@ -35502,51 +35601,51 @@
     </row>
     <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B513" s="2"/>
       <c r="C513" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D513" s="97" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E513" s="2"/>
     </row>
     <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B514" s="1"/>
       <c r="C514" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D514" s="79" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E514" s="49" t="s">
         <v>771</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="92" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B515" s="92"/>
       <c r="C515" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D515" s="85" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G515" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="E515" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G515" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="516" spans="1:8" ht="12.75">
@@ -35558,98 +35657,98 @@
     </row>
     <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B517" s="1"/>
       <c r="C517" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D517" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H517" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="E517" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H517" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B518" s="1"/>
       <c r="C518" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="519" spans="1:8" ht="15">
       <c r="A519" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B519" s="1"/>
       <c r="C519" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E519" s="43" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B521" s="1"/>
       <c r="C521" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B522" s="1"/>
       <c r="C522" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E522" s="85" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B523" s="1"/>
       <c r="C523" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>559</v>
@@ -35658,20 +35757,20 @@
     </row>
     <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B524" s="1"/>
       <c r="C524" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D524" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E524" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E524" s="2" t="s">
-        <v>1171</v>
-      </c>
       <c r="G524" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="525" spans="1:8" ht="12.75">
@@ -35684,50 +35783,50 @@
     </row>
     <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D526" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C526" s="1" t="s">
+      <c r="E526" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D526" s="1" t="s">
+      <c r="H526" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="E526" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H526" s="1" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="529" spans="1:9" ht="12.75">
@@ -35736,18 +35835,18 @@
     </row>
     <row r="530" spans="1:9" ht="12.75">
       <c r="A530" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="531" spans="1:9" ht="12.75">
       <c r="A531" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>131</v>
@@ -35755,22 +35854,22 @@
     </row>
     <row r="532" spans="1:9" ht="12.75">
       <c r="A532" s="92" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B532" s="92" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D532" s="102" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E532" s="102" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F532" s="102" t="s">
         <v>1183</v>
-      </c>
-      <c r="E532" s="102" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F532" s="102" t="s">
-        <v>1185</v>
       </c>
       <c r="G532" s="1"/>
       <c r="H532" s="1">
@@ -35782,79 +35881,79 @@
     </row>
     <row r="533" spans="1:9" ht="12.75">
       <c r="A533" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D533" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F533" s="81" t="s">
         <v>1187</v>
       </c>
-      <c r="E533" s="1" t="s">
+      <c r="G533" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="F533" s="81" t="s">
+      <c r="H533" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="G533" s="1" t="s">
+      <c r="I533" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="H533" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I533" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="536" spans="1:9" ht="12.75">
       <c r="A536" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="537" spans="1:9" ht="12.75">
       <c r="A537" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="538" spans="1:9" ht="12.75">
       <c r="A538" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="539" spans="1:9" ht="12.75">
       <c r="A539" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="540" spans="1:9" ht="12.75">
       <c r="A540" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="541" spans="1:9" ht="12.75">
       <c r="A541" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -45555,7 +45654,7 @@
         <v>690</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D337" s="56" t="s">
         <v>781</v>
@@ -45564,7 +45663,7 @@
         <v>782</v>
       </c>
       <c r="F337" s="49" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G337" s="54"/>
       <c r="H337" s="8"/>
@@ -45598,10 +45697,10 @@
         <v>300</v>
       </c>
       <c r="D338" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F338" s="8"/>
       <c r="G338" s="54"/>
@@ -45636,10 +45735,10 @@
         <v>300</v>
       </c>
       <c r="D339" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F339" s="8"/>
       <c r="G339" s="54"/>
@@ -45674,13 +45773,13 @@
         <v>300</v>
       </c>
       <c r="D340" s="63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E340" s="66" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F340" s="58" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G340" s="54"/>
       <c r="H340" s="8"/>
@@ -45707,17 +45806,17 @@
     </row>
     <row r="341" spans="1:31" ht="12.75">
       <c r="A341" s="49" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B341" s="7"/>
       <c r="C341" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D341" s="67" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="E341" s="49" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F341" s="8"/>
       <c r="G341" s="54"/>
@@ -45749,10 +45848,10 @@
       </c>
       <c r="B342" s="7"/>
       <c r="C342" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D342" s="56" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F342" s="8"/>
       <c r="G342" s="54"/>
@@ -45786,13 +45885,13 @@
         <v>712</v>
       </c>
       <c r="C343" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="D343" s="56" t="s">
+        <v>829</v>
+      </c>
+      <c r="E343" s="7" t="s">
         <v>830</v>
-      </c>
-      <c r="D343" s="56" t="s">
-        <v>831</v>
-      </c>
-      <c r="E343" s="7" t="s">
-        <v>832</v>
       </c>
       <c r="F343" s="8"/>
       <c r="G343" s="54"/>
@@ -45824,10 +45923,10 @@
       </c>
       <c r="B344" s="7"/>
       <c r="C344" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D344" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
@@ -45865,7 +45964,7 @@
         <v>448</v>
       </c>
       <c r="D345" s="68" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E345" s="43" t="s">
         <v>782</v>
@@ -45935,13 +46034,13 @@
         <v>670</v>
       </c>
       <c r="D347" s="70" t="s">
+        <v>847</v>
+      </c>
+      <c r="E347" s="60" t="s">
         <v>849</v>
       </c>
-      <c r="E347" s="60" t="s">
-        <v>851</v>
-      </c>
       <c r="F347" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G347" s="54"/>
       <c r="H347" s="8"/>
@@ -45977,10 +46076,10 @@
         <v>670</v>
       </c>
       <c r="D348" s="68" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E348" s="59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F348" s="49" t="s">
         <v>730</v>
@@ -46044,13 +46143,13 @@
       </c>
       <c r="B350" s="7"/>
       <c r="C350" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D350" s="71" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E350" s="72" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F350" s="8"/>
       <c r="G350" s="54"/>
@@ -46085,10 +46184,10 @@
         <v>733</v>
       </c>
       <c r="D351" s="71" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E351" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F351" s="8"/>
       <c r="G351" s="54"/>
@@ -46120,13 +46219,13 @@
       </c>
       <c r="B352" s="7"/>
       <c r="C352" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D352" s="73" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E352" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F352" s="8"/>
       <c r="G352" s="54"/>
@@ -46163,13 +46262,13 @@
         <v>726</v>
       </c>
       <c r="D353" s="74" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E353" s="69" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F353" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G353" s="54"/>
       <c r="H353" s="8"/>
@@ -46232,10 +46331,10 @@
         <v>738</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D355" s="56" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E355" s="49" t="s">
         <v>150</v>
@@ -46272,13 +46371,13 @@
         <v>740</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D356" s="60" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F356" s="8"/>
       <c r="G356" s="54"/>
@@ -46312,10 +46411,10 @@
         <v>741</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D357" s="75" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E357" s="49" t="s">
         <v>171</v>
@@ -46351,22 +46450,22 @@
         <v>743</v>
       </c>
       <c r="B358" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="C358" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="C358" s="7" t="s">
-        <v>911</v>
-      </c>
       <c r="D358" s="76" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E358" s="77" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F358" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G358" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H358" s="8"/>
       <c r="I358" s="8"/>
@@ -46428,13 +46527,13 @@
         <v>745</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E360" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F360" s="8"/>
       <c r="G360" s="54"/>
@@ -46466,16 +46565,16 @@
       </c>
       <c r="B361" s="7"/>
       <c r="C361" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D361" s="78" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E361" s="72" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="G361" s="54"/>
       <c r="H361" s="8"/>
@@ -46508,13 +46607,13 @@
         <v>752</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D362" s="79" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="E362" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F362" s="8"/>
       <c r="G362" s="54"/>
@@ -46548,13 +46647,13 @@
         <v>753</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D363" s="79" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E363" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F363" s="8"/>
       <c r="G363" s="54"/>
@@ -46588,7 +46687,7 @@
         <v>758</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D364" s="80" t="s">
         <v>171</v>
@@ -46606,13 +46705,13 @@
         <v>760</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D365" s="68" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="E365" s="59" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>150</v>
@@ -46627,44 +46726,44 @@
         <v>754</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D366" s="81" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:31" ht="12.75">
       <c r="A367" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="D367" s="81" t="s">
         <v>965</v>
       </c>
-      <c r="C367" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D367" s="81" t="s">
+      <c r="E367" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F367" s="1" t="s">
         <v>967</v>
-      </c>
-      <c r="E367" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:31" ht="12.75">
       <c r="B368" s="1"/>
       <c r="C368" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="G368" s="1"/>
     </row>
@@ -46724,26 +46823,26 @@
         <v>772</v>
       </c>
       <c r="D373" s="82" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E373" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F373" s="71" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" ht="12.75">
       <c r="A374" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B374" s="1"/>
       <c r="C374" s="1" t="s">
         <v>772</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E374" s="49" t="s">
         <v>171</v>
@@ -46761,10 +46860,10 @@
         <v>300</v>
       </c>
       <c r="D375" s="81" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E375" s="63" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G375" s="1"/>
     </row>
@@ -46779,10 +46878,10 @@
         <v>300</v>
       </c>
       <c r="D376" s="81" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G376" s="1"/>
     </row>
@@ -46804,13 +46903,13 @@
         <v>300</v>
       </c>
       <c r="D378" s="81" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E378" s="82" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="379" spans="1:7" ht="12.75">
@@ -46822,10 +46921,10 @@
         <v>300</v>
       </c>
       <c r="D379" s="83" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E379" s="49" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>150</v>
@@ -46841,7 +46940,7 @@
         <v>300</v>
       </c>
       <c r="D380" s="81" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>171</v>
@@ -46850,7 +46949,7 @@
         <v>150</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="12.75">
@@ -46864,13 +46963,13 @@
         <v>300</v>
       </c>
       <c r="D381" s="81" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E381" s="82" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="12.75">
@@ -46891,13 +46990,13 @@
         <v>300</v>
       </c>
       <c r="D383" s="81" t="s">
+        <v>999</v>
+      </c>
+      <c r="E383" s="59" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G383" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="E383" s="59" t="s">
-        <v>1002</v>
-      </c>
-      <c r="G383" s="1" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="384" spans="1:7" ht="12.75">
@@ -46911,46 +47010,46 @@
         <v>300</v>
       </c>
       <c r="D384" s="81" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E384" s="73" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D385" s="81" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E385" s="63" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B386" s="1"/>
       <c r="C386" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D386" s="84" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E386" s="85" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G386" s="1"/>
     </row>
@@ -46963,16 +47062,16 @@
     </row>
     <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="1" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D388" s="59" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>150</v>
@@ -46981,39 +47080,39 @@
     </row>
     <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D389" s="81" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E389" s="59" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G389" s="1" t="s">
         <v>1010</v>
-      </c>
-      <c r="E389" s="59" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C390" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D390" s="81" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E390" s="86" t="s">
         <v>1013</v>
-      </c>
-      <c r="D390" s="81" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E390" s="86" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="12.75">
@@ -47025,43 +47124,43 @@
     </row>
     <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D392" s="85" t="s">
         <v>171</v>
       </c>
       <c r="E392" s="87" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D393" s="81" t="s">
         <v>1018</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C393" s="1" t="s">
+      <c r="E393" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="D393" s="81" t="s">
+      <c r="F393" s="63" t="s">
         <v>1020</v>
       </c>
-      <c r="E393" s="1" t="s">
+      <c r="G393" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="F393" s="63" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G393" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="394" spans="1:8" ht="12.75">
@@ -47073,44 +47172,44 @@
     </row>
     <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D395" s="81" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B396" s="1"/>
       <c r="C396" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D396" s="81" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="12.75">
@@ -47120,104 +47219,104 @@
     </row>
     <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D398" s="81" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C399" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D399" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="D399" s="1" t="s">
-        <v>1032</v>
-      </c>
       <c r="E399" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C400" s="88" t="s">
         <v>448</v>
       </c>
       <c r="D400" s="81" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E400" s="89" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="401" spans="1:9" ht="12.75">
       <c r="A401" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C401" s="88" t="s">
         <v>448</v>
       </c>
       <c r="D401" s="81" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E401" s="89" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="402" spans="1:9" ht="12.75">
       <c r="A402" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C402" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D402" s="81" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E402" s="90" t="s">
         <v>1034</v>
-      </c>
-      <c r="D402" s="81" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E402" s="90" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="403" spans="1:9" ht="12.75">
       <c r="A403" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="D403" s="81" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E403" s="86" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="404" spans="1:9" ht="12.75">
@@ -47227,83 +47326,83 @@
     </row>
     <row r="405" spans="1:9" ht="12.75">
       <c r="A405" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D405" s="81" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="406" spans="1:9" ht="12.75">
       <c r="A406" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D406" s="81" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="407" spans="1:9" ht="12.75">
       <c r="A407" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D407" s="81" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E407" s="82" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="408" spans="1:9" ht="12.75">
       <c r="A408" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B408" s="1"/>
       <c r="C408" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D408" s="59" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E408" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="E408" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>171</v>
@@ -47311,57 +47410,57 @@
     </row>
     <row r="409" spans="1:9" ht="12.75">
       <c r="A409" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D409" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E409" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="E409" s="1" t="s">
-        <v>1046</v>
-      </c>
       <c r="G409" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="410" spans="1:9" ht="12.75">
       <c r="A410" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D410" s="81" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="411" spans="1:9" ht="12.75">
       <c r="A411" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B411" s="1"/>
       <c r="C411" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D411" s="84" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>171</v>
@@ -47374,96 +47473,96 @@
     </row>
     <row r="413" spans="1:9" ht="12.75">
       <c r="A413" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B413" s="1"/>
       <c r="C413" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D413" s="21" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E413" s="91" t="s">
         <v>771</v>
       </c>
       <c r="F413" s="84" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="414" spans="1:9" ht="12.75">
       <c r="A414" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C414" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D414" s="81" t="s">
         <v>1050</v>
       </c>
-      <c r="D414" s="81" t="s">
+      <c r="E414" s="81" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G414" s="1" t="s">
         <v>1052</v>
-      </c>
-      <c r="E414" s="81" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G414" s="1" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="415" spans="1:9" ht="12.75">
       <c r="A415" s="92" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B415" s="92"/>
       <c r="C415" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D415" s="59" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E415" s="93" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F415" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="E415" s="93" t="s">
+      <c r="G415" s="1" t="s">
         <v>1056</v>
-      </c>
-      <c r="F415" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G415" s="1" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="416" spans="1:9" ht="12.75">
       <c r="A416" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E416" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F416" s="81" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I416" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="F416" s="81" t="s">
-        <v>1059</v>
-      </c>
-      <c r="I416" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="417" spans="1:7" ht="12.75">
       <c r="A417" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B417" s="1"/>
       <c r="C417" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="D417" s="94" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="418" spans="1:7" ht="12.75">
@@ -47473,49 +47572,49 @@
     </row>
     <row r="419" spans="1:7" ht="12.75">
       <c r="A419" s="92" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B419" s="92"/>
       <c r="C419" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D419" s="59" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E419" s="49" t="s">
+        <v>832</v>
+      </c>
+      <c r="G419" s="1" t="s">
         <v>1062</v>
-      </c>
-      <c r="D419" s="59" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E419" s="49" t="s">
-        <v>834</v>
-      </c>
-      <c r="G419" s="1" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="420" spans="1:7" ht="12.75">
       <c r="A420" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C420" s="1">
         <v>34</v>
       </c>
       <c r="D420" s="49"/>
       <c r="E420" s="49" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="421" spans="1:7" ht="12.75">
       <c r="A421" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C421" s="1">
         <v>37</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>171</v>
@@ -47523,108 +47622,108 @@
     </row>
     <row r="422" spans="1:7" ht="12.75">
       <c r="A422" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C422" s="1"/>
     </row>
     <row r="423" spans="1:7" ht="12.75">
       <c r="A423" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B423" s="1"/>
       <c r="C423" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D423" s="95" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E423" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D423" s="95" t="s">
+      <c r="G423" s="1" t="s">
         <v>1069</v>
-      </c>
-      <c r="E423" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="G423" s="1" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="424" spans="1:7" ht="12.75">
       <c r="A424" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D424" s="81" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G424" s="1" t="s">
         <v>1072</v>
-      </c>
-      <c r="B424" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D424" s="81" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G424" s="1" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="425" spans="1:7" ht="12.75">
       <c r="A425" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D425" s="81" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G425" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="B425" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D425" s="81" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E425" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G425" s="1" t="s">
-        <v>1077</v>
       </c>
     </row>
     <row r="426" spans="1:7" ht="12.75">
       <c r="A426" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D426" s="81" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G426" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B426" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D426" s="81" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G426" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="427" spans="1:7" ht="12.75">
       <c r="A427" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B427" s="1"/>
       <c r="D427" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G427" s="1"/>
     </row>
     <row r="428" spans="1:7" ht="12.75">
       <c r="A428" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="D428" s="1"/>
       <c r="G428" s="1"/>
     </row>
     <row r="429" spans="1:7" ht="12.75">
       <c r="A429" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B429" s="1"/>
       <c r="D429" s="2" t="s">
@@ -47634,7 +47733,7 @@
     </row>
     <row r="430" spans="1:7" ht="12.75">
       <c r="A430" s="1" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B430" s="1"/>
       <c r="D430" s="2" t="s">
@@ -47650,79 +47749,79 @@
     </row>
     <row r="432" spans="1:7" ht="12.75">
       <c r="A432" s="92" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B432" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D432" s="59" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E432" s="59" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F432" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="E432" s="59" t="s">
+      <c r="G432" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="F432" s="1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G432" s="2" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="433" spans="1:11" ht="12.75">
       <c r="A433" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D433" s="59" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>171</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="434" spans="1:11" ht="12.75">
       <c r="A434" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D434" s="59" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G434" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="E434" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="G434" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="435" spans="1:11" ht="12.75">
       <c r="A435" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D435" s="81" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>150</v>
@@ -47730,243 +47829,243 @@
     </row>
     <row r="436" spans="1:11" ht="12.75">
       <c r="A436" s="92" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B436" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D436" s="59" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="437" spans="1:11" ht="12.75">
       <c r="A437" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="438" spans="1:11" ht="12.75">
       <c r="A438" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F438" s="1"/>
     </row>
     <row r="439" spans="1:11" ht="12.75">
       <c r="A439" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D439" s="81" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E439" s="97" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>730</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
     <row r="441" spans="1:11" ht="12.75">
       <c r="A441" s="92" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B441" s="92"/>
       <c r="C441" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E441" s="59" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F441" s="59"/>
       <c r="G441" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="442" spans="1:11" ht="12.75">
       <c r="A442" s="92" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B442" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D442" s="59" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E442" s="59" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F442" s="59"/>
       <c r="G442" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="443" spans="1:11" ht="12.75">
       <c r="A443" s="92" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B443" s="96" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D443" s="59" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E443" s="21" t="s">
         <v>1105</v>
-      </c>
-      <c r="E443" s="21" t="s">
-        <v>1107</v>
       </c>
       <c r="F443" s="59"/>
       <c r="G443" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="445" spans="1:11" ht="12.75">
       <c r="A445" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C445" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D445" s="81" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E445" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="D445" s="81" t="s">
+      <c r="F445" s="98" t="s">
         <v>1109</v>
       </c>
-      <c r="E445" s="1" t="s">
+      <c r="G445" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="F445" s="98" t="s">
+      <c r="H445" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="G445" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H445" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="446" spans="1:11" ht="12.75">
       <c r="A446" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D446" s="81" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E446" s="90" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G446" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="E446" s="90" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G446" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="447" spans="1:11" ht="12.75">
       <c r="A447" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B447" s="2"/>
       <c r="C447" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D447" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F447" s="59" t="s">
         <v>1117</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="H447" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="F447" s="59" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H447" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="448" spans="1:11" ht="12.75">
       <c r="A448" s="92" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B448" s="92"/>
       <c r="C448" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D448" s="59" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G448" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G448" s="1" t="s">
-        <v>1123</v>
       </c>
     </row>
     <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D449" s="81" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E449" s="81" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F449" s="59" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -47986,76 +48085,76 @@
     </row>
     <row r="452" spans="1:8" ht="15">
       <c r="A452" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B452" s="2"/>
       <c r="C452" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D452" s="43" t="s">
         <v>782</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F452" s="1"/>
       <c r="G452" s="1"/>
       <c r="H452" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="453" spans="1:8" ht="12.75">
       <c r="D453" s="1" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="92" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B454" s="92"/>
       <c r="C454" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D454" s="59" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G454" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="92" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B455" s="92"/>
       <c r="C455" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D455" s="59" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G455" s="1" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="92" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B456" s="92"/>
       <c r="C456" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D456" s="59" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E456" s="1"/>
       <c r="G456" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="12.75">
@@ -48066,31 +48165,31 @@
     </row>
     <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D458" s="81" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="F458" s="99" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="459" spans="1:8" ht="15">
       <c r="A459" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B459" s="2"/>
       <c r="C459" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D459" s="85" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E459" s="43" t="s">
         <v>782</v>
@@ -48098,75 +48197,75 @@
     </row>
     <row r="461" spans="1:8" ht="14.25">
       <c r="A461" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B461" s="1"/>
       <c r="C461" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D461" s="100" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E461" s="59" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D462" s="59" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G463" s="1" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="92" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B464" s="92"/>
       <c r="C464" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D464" s="85" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E464" s="101"/>
       <c r="F464" s="59" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="12.75">
@@ -48177,51 +48276,51 @@
     </row>
     <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B467" s="2"/>
       <c r="C467" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D467" s="97" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E467" s="2"/>
     </row>
     <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D468" s="79" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E468" s="49" t="s">
         <v>771</v>
       </c>
       <c r="G468" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="92" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B469" s="92"/>
       <c r="C469" s="1" t="s">
         <v>300</v>
       </c>
       <c r="D469" s="85" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G469" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="E469" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="G469" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="12.75">
@@ -48233,98 +48332,98 @@
     </row>
     <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B471" s="1"/>
       <c r="C471" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D471" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="H471" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="E471" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="H471" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B472" s="1"/>
       <c r="C472" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="15">
       <c r="A473" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B473" s="1"/>
       <c r="C473" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E473" s="43" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B475" s="1"/>
       <c r="C475" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B476" s="1"/>
       <c r="C476" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E476" s="85" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B477" s="1"/>
       <c r="C477" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E477" s="1" t="s">
         <v>559</v>
@@ -48333,20 +48432,20 @@
     </row>
     <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B478" s="1"/>
       <c r="C478" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D478" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E478" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="E478" s="2" t="s">
-        <v>1171</v>
-      </c>
       <c r="G478" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="12.75">
@@ -48359,50 +48458,50 @@
     </row>
     <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D480" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C480" s="1" t="s">
+      <c r="E480" s="1" t="s">
         <v>1174</v>
       </c>
-      <c r="D480" s="1" t="s">
+      <c r="H480" s="1" t="s">
         <v>1175</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="H480" s="1" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="481" spans="1:9" ht="12.75">
       <c r="A481" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="482" spans="1:9" ht="12.75">
       <c r="A482" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="483" spans="1:9" ht="12.75">
@@ -48411,18 +48510,18 @@
     </row>
     <row r="484" spans="1:9" ht="12.75">
       <c r="A484" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="12.75">
       <c r="A485" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>131</v>
@@ -48430,22 +48529,22 @@
     </row>
     <row r="486" spans="1:9" ht="12.75">
       <c r="A486" s="92" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B486" s="92" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D486" s="102" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E486" s="102" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F486" s="102" t="s">
         <v>1183</v>
-      </c>
-      <c r="E486" s="102" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F486" s="102" t="s">
-        <v>1185</v>
       </c>
       <c r="G486" s="1"/>
       <c r="H486" s="1">
@@ -48457,79 +48556,79 @@
     </row>
     <row r="487" spans="1:9" ht="12.75">
       <c r="A487" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>131</v>
       </c>
       <c r="D487" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F487" s="81" t="s">
         <v>1187</v>
       </c>
-      <c r="E487" s="1" t="s">
+      <c r="G487" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="F487" s="81" t="s">
+      <c r="H487" s="1" t="s">
         <v>1189</v>
       </c>
-      <c r="G487" s="1" t="s">
+      <c r="I487" s="1" t="s">
         <v>1190</v>
-      </c>
-      <c r="H487" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="I487" s="1" t="s">
-        <v>1192</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="12.75">
       <c r="A490" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="12.75">
       <c r="A491" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="12.75">
       <c r="A492" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="12.75">
       <c r="A493" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="12.75">
       <c r="A494" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="12.75">
       <c r="A495" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -48561,43 +48660,43 @@
   <sheetData>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1200</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -48621,21 +48720,21 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="F2" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
@@ -48710,31 +48809,31 @@
   <sheetData>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
   </sheetData>
@@ -48755,11 +48854,11 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="103" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B1" s="103"/>
       <c r="C1" s="103" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D1" s="103"/>
       <c r="E1" s="104">
@@ -48771,7 +48870,7 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="104">
         <f ca="1">TODAY()</f>
-        <v>43676</v>
+        <v>43700</v>
       </c>
       <c r="B2" s="105"/>
       <c r="C2" s="106">
@@ -48792,9 +48891,9 @@
       <c r="F3" s="107"/>
       <c r="G3" s="107"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="103" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B4" s="108">
         <v>7</v>
@@ -48803,14 +48902,14 @@
       <c r="D4" s="107"/>
       <c r="E4" s="109" t="str">
         <f ca="1">DATEDIF(E1,TODAY(),"Y")&amp; "Years,"&amp;DATEDIF(E1,TODAY(),"YM")&amp;"Months,"&amp;DATEDIF(E1,TODAY(),"MD")&amp;"Days"</f>
-        <v>31Years,7Months,12Days</v>
+        <v>31Years,8Months,5Days</v>
       </c>
       <c r="F4" s="107"/>
       <c r="G4" s="107"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="110" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B5" s="111">
         <v>2</v>
@@ -48840,7 +48939,7 @@
       </c>
       <c r="B7" s="114">
         <f ca="1">(((A2-B6)/365)*52)*7</f>
-        <v>1944.6575342465753</v>
+        <v>1968.5917808219178</v>
       </c>
       <c r="C7" s="107"/>
       <c r="D7" s="107"/>
@@ -48859,7 +48958,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="103" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B9" s="115">
         <v>9</v>
@@ -48919,15 +49018,15 @@
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="103"/>
       <c r="B14" s="103" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C14" s="110"/>
       <c r="D14" s="110" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E14" s="110"/>
       <c r="F14" s="110" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="G14" s="107"/>
     </row>
@@ -48946,18 +49045,18 @@
       </c>
       <c r="G15" s="107"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="103"/>
       <c r="B16" s="107"/>
       <c r="C16" s="110"/>
       <c r="D16" s="117" t="str">
         <f ca="1">DATEDIF(D15,TODAY(),"Y")&amp; "Years,"&amp;DATEDIF(D15,TODAY(),"YM")&amp;"Months,"&amp;DATEDIF(D15,TODAY(),"MD")&amp;"Days"</f>
-        <v>4Years,11Months,8Days</v>
+        <v>5Years,0Months,1Days</v>
       </c>
       <c r="E16" s="110"/>
       <c r="F16" s="117" t="str">
         <f ca="1">DATEDIF(F15,TODAY(),"Y")&amp; "Years,"&amp;DATEDIF(F15,TODAY(),"YM")&amp;"Months,"&amp;DATEDIF(F15,TODAY(),"MD")&amp;"Days"</f>
-        <v>4Years,11Months,8Days</v>
+        <v>5Years,0Months,1Days</v>
       </c>
       <c r="G16" s="107"/>
     </row>
@@ -49081,41 +49180,41 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1301</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>1302</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1305</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
@@ -49123,20 +49222,20 @@
         <v>2871</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>1307</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1309</v>
       </c>
       <c r="F4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
@@ -49144,10 +49243,10 @@
         <v>2872</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -49155,16 +49254,16 @@
         <v>2866</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
@@ -49172,21 +49271,21 @@
         <v>2868</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
@@ -49199,19 +49298,19 @@
         <v>2872</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>1328</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -49219,25 +49318,25 @@
         <v>2868</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D12" s="81" t="s">
         <v>1330</v>
       </c>
-      <c r="D12" s="81" t="s">
+      <c r="E12" s="1" t="s">
         <v>1332</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>1334</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -49245,13 +49344,13 @@
         <v>2866</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
@@ -49259,21 +49358,21 @@
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>1301</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
@@ -49281,48 +49380,48 @@
         <v>2890</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>1345</v>
-      </c>
-      <c r="H17" s="81" t="s">
-        <v>1346</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="81" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>1348</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E18" s="81" t="s">
+      <c r="H18" s="1" t="s">
         <v>1349</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
@@ -49331,49 +49430,49 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12.75">
       <c r="A22" s="121" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F22" s="81" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12.75">
       <c r="A23" s="122" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12.75">
       <c r="A24" s="123" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12.75">
@@ -49387,31 +49486,31 @@
     </row>
     <row r="26" spans="1:9" ht="12.75">
       <c r="A26" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12.75">
@@ -49419,19 +49518,19 @@
         <v>2871</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C27" s="119">
         <v>41734</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12.75">
@@ -49439,19 +49538,19 @@
         <v>2872</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C28" s="119">
         <v>41734</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12.75">
@@ -49459,22 +49558,22 @@
         <v>2866</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C29" s="119">
         <v>41734</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>1308</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>1318</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12.75">
@@ -49482,28 +49581,28 @@
         <v>2868</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C30" s="119">
         <v>41734</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>1360</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12.75">
@@ -49511,16 +49610,16 @@
         <v>2929</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C31" s="119">
         <v>41728</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12.75">
@@ -49528,22 +49627,22 @@
         <v>2890</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C32" s="119">
         <v>41744</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="I32" s="1">
         <v>5</v>
@@ -49554,25 +49653,25 @@
         <v>2892</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C33" s="119">
         <v>41744</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>1367</v>
       </c>
       <c r="I33" s="1">
         <v>5</v>
@@ -49583,67 +49682,67 @@
         <v>2797</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="12.75">
       <c r="A35" s="81" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C35" s="119">
         <v>41710</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>291</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="12.75">
       <c r="A36" s="1" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C36" s="119">
         <v>41710</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.75">
       <c r="A37" s="1" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="C37" s="119">
         <v>41710</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>291</v>
@@ -49651,22 +49750,22 @@
     </row>
     <row r="38" spans="1:9" ht="12.75">
       <c r="A38" s="1" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C38" s="119">
         <v>41710</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
